--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H2">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N2">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O2">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P2">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q2">
-        <v>1.373745239826667</v>
+        <v>0.0673192366111111</v>
       </c>
       <c r="R2">
-        <v>12.36370715844</v>
+        <v>0.6058731294999999</v>
       </c>
       <c r="S2">
-        <v>0.008547587499086455</v>
+        <v>0.0004792135616222019</v>
       </c>
       <c r="T2">
-        <v>0.008547587499086455</v>
+        <v>0.0004792135616222018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H3">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.568059</v>
       </c>
       <c r="O3">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P3">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q3">
-        <v>0.673303980683889</v>
+        <v>0.07123837254288888</v>
       </c>
       <c r="R3">
-        <v>6.059735826155</v>
+        <v>0.6411453528859998</v>
       </c>
       <c r="S3">
-        <v>0.004189368247860072</v>
+        <v>0.0005071120224915397</v>
       </c>
       <c r="T3">
-        <v>0.004189368247860072</v>
+        <v>0.0005071120224915395</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H4">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,25 +679,25 @@
         <v>17.274688</v>
       </c>
       <c r="N4">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O4">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P4">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q4">
-        <v>7.638550330986668</v>
+        <v>0.8081905198506666</v>
       </c>
       <c r="R4">
-        <v>68.74695297888002</v>
+        <v>7.273714678655999</v>
       </c>
       <c r="S4">
-        <v>0.0475278642847363</v>
+        <v>0.005753123133648447</v>
       </c>
       <c r="T4">
-        <v>0.04752786428473631</v>
+        <v>0.005753123133648447</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.109726</v>
       </c>
       <c r="I5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N5">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O5">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P5">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q5">
-        <v>19.78967553071467</v>
+        <v>9.165767745611111</v>
       </c>
       <c r="R5">
-        <v>178.107079776432</v>
+        <v>82.4919097105</v>
       </c>
       <c r="S5">
-        <v>0.1231334444504841</v>
+        <v>0.06524673224905876</v>
       </c>
       <c r="T5">
-        <v>0.1231334444504841</v>
+        <v>0.06524673224905875</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.109726</v>
       </c>
       <c r="I6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.568059</v>
       </c>
       <c r="O6">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P6">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q6">
         <v>9.699372871314889</v>
@@ -818,10 +818,10 @@
         <v>87.29435584183399</v>
       </c>
       <c r="S6">
-        <v>0.06035051907753302</v>
+        <v>0.06904521282698861</v>
       </c>
       <c r="T6">
-        <v>0.06035051907753302</v>
+        <v>0.06904521282698861</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.109726</v>
       </c>
       <c r="I7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>17.274688</v>
       </c>
       <c r="N7">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O7">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P7">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q7">
         <v>110.0381848051627</v>
       </c>
       <c r="R7">
-        <v>990.3436632464641</v>
+        <v>990.343663246464</v>
       </c>
       <c r="S7">
-        <v>0.6846691697955942</v>
+        <v>0.7833093943049946</v>
       </c>
       <c r="T7">
-        <v>0.6846691697955943</v>
+        <v>0.7833093943049946</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H8">
         <v>1.575659</v>
       </c>
       <c r="I8">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J8">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.106744</v>
+        <v>1.438916666666667</v>
       </c>
       <c r="N8">
-        <v>9.320232000000001</v>
+        <v>4.31675</v>
       </c>
       <c r="O8">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="P8">
-        <v>0.1418337845295607</v>
+        <v>0.07110575088422412</v>
       </c>
       <c r="Q8">
-        <v>1.631723048098667</v>
+        <v>0.7557473320277779</v>
       </c>
       <c r="R8">
-        <v>14.685507432888</v>
+        <v>6.80172598825</v>
       </c>
       <c r="S8">
-        <v>0.01015275257999017</v>
+        <v>0.005379805073543163</v>
       </c>
       <c r="T8">
-        <v>0.01015275257999017</v>
+        <v>0.005379805073543163</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H9">
         <v>1.575659</v>
       </c>
       <c r="I9">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J9">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.568059</v>
       </c>
       <c r="O9">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="P9">
-        <v>0.06951598371417368</v>
+        <v>0.07524532698869241</v>
       </c>
       <c r="Q9">
-        <v>0.7997448084312222</v>
+        <v>0.7997448084312224</v>
       </c>
       <c r="R9">
         <v>7.197703275881</v>
       </c>
       <c r="S9">
-        <v>0.004976096388780593</v>
+        <v>0.005693002139212257</v>
       </c>
       <c r="T9">
-        <v>0.004976096388780592</v>
+        <v>0.005693002139212255</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H10">
         <v>1.575659</v>
       </c>
       <c r="I10">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J10">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,25 +1051,25 @@
         <v>17.274688</v>
       </c>
       <c r="N10">
-        <v>51.82406400000001</v>
+        <v>51.824064</v>
       </c>
       <c r="O10">
-        <v>0.7886502317562656</v>
+        <v>0.8536489221270834</v>
       </c>
       <c r="P10">
-        <v>0.7886502317562657</v>
+        <v>0.8536489221270835</v>
       </c>
       <c r="Q10">
-        <v>9.073005873130667</v>
+        <v>9.073005873130668</v>
       </c>
       <c r="R10">
         <v>81.657052858176</v>
       </c>
       <c r="S10">
-        <v>0.05645319767593508</v>
+        <v>0.06458640468844051</v>
       </c>
       <c r="T10">
-        <v>0.05645319767593508</v>
+        <v>0.06458640468844051</v>
       </c>
     </row>
   </sheetData>
